--- a/satellite/csv-js/dagupan_csv.xlsx
+++ b/satellite/csv-js/dagupan_csv.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="dagupan_csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
